--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
   <si>
     <t>list_name</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>r_danger_sign_present</t>
   </si>
   <si>
     <t>congratulate_no_ds_note</t>
@@ -1050,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN1037"/>
+  <dimension ref="A1:AN1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3545,7 +3542,7 @@
         <v>132</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
@@ -3593,7 +3590,7 @@
         <v>133</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
@@ -3638,10 +3635,10 @@
         <v>134</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="46" t="s">
         <v>31</v>
@@ -3688,10 +3685,10 @@
         <v>134</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="46" t="s">
         <v>31</v>
@@ -3738,10 +3735,10 @@
         <v>134</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="46" t="s">
         <v>31</v>
@@ -3788,10 +3785,10 @@
         <v>134</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="46" t="s">
         <v>31</v>
@@ -3838,10 +3835,10 @@
         <v>134</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>31</v>
@@ -3888,10 +3885,10 @@
         <v>134</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="46" t="s">
         <v>31</v>
@@ -3938,10 +3935,10 @@
         <v>134</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>31</v>
@@ -3988,10 +3985,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="46" t="s">
         <v>31</v>
@@ -4038,10 +4035,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="46" t="s">
         <v>31</v>
@@ -4085,13 +4082,13 @@
     </row>
     <row r="63" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D63" s="46"/>
       <c r="E63" s="46"/>
@@ -4136,10 +4133,10 @@
         <v>109</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D64" s="46"/>
       <c r="E64" s="46"/>
@@ -4148,46 +4145,38 @@
       <c r="H64" s="46"/>
       <c r="I64" s="46"/>
       <c r="J64" s="46"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="40"/>
-      <c r="AE64" s="40"/>
-      <c r="AF64" s="40"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="40"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
-      <c r="AK64" s="40"/>
-      <c r="AL64" s="40"/>
-      <c r="AM64" s="40"/>
-      <c r="AN64" s="40"/>
-    </row>
-    <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="T64" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AE64" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
         <v>109</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D65" s="46"/>
       <c r="E65" s="46"/>
@@ -4196,13 +4185,17 @@
       <c r="H65" s="46"/>
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
+      <c r="N65" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
       <c r="T65" s="22" t="s">
         <v>52</v>
       </c>
@@ -4215,57 +4208,44 @@
       <c r="AA65" s="22"/>
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
-      <c r="AE65" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-    </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    </row>
+    <row r="66" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+    </row>
+    <row r="68" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -4296,7 +4276,7 @@
       <c r="AB68" s="22"/>
       <c r="AC68" s="22"/>
     </row>
-    <row r="69" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -4327,7 +4307,7 @@
       <c r="AB69" s="22"/>
       <c r="AC69" s="22"/>
     </row>
-    <row r="70" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -4358,7 +4338,7 @@
       <c r="AB70" s="22"/>
       <c r="AC70" s="22"/>
     </row>
-    <row r="71" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -4389,7 +4369,7 @@
       <c r="AB71" s="22"/>
       <c r="AC71" s="22"/>
     </row>
-    <row r="72" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -4420,7 +4400,7 @@
       <c r="AB72" s="22"/>
       <c r="AC72" s="22"/>
     </row>
-    <row r="73" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -4451,7 +4431,7 @@
       <c r="AB73" s="22"/>
       <c r="AC73" s="22"/>
     </row>
-    <row r="74" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -4482,7 +4462,7 @@
       <c r="AB74" s="22"/>
       <c r="AC74" s="22"/>
     </row>
-    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -4513,7 +4493,7 @@
       <c r="AB75" s="22"/>
       <c r="AC75" s="22"/>
     </row>
-    <row r="76" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -4544,7 +4524,7 @@
       <c r="AB76" s="22"/>
       <c r="AC76" s="22"/>
     </row>
-    <row r="77" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -4575,7 +4555,7 @@
       <c r="AB77" s="22"/>
       <c r="AC77" s="22"/>
     </row>
-    <row r="78" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -4606,7 +4586,7 @@
       <c r="AB78" s="22"/>
       <c r="AC78" s="22"/>
     </row>
-    <row r="79" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -4637,7 +4617,7 @@
       <c r="AB79" s="22"/>
       <c r="AC79" s="22"/>
     </row>
-    <row r="80" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -34304,40 +34284,9 @@
       <c r="AB1036" s="22"/>
       <c r="AC1036" s="22"/>
     </row>
-    <row r="1037" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="22"/>
-      <c r="B1037" s="22"/>
-      <c r="C1037" s="22"/>
-      <c r="D1037" s="22"/>
-      <c r="E1037" s="22"/>
-      <c r="F1037" s="22"/>
-      <c r="G1037" s="22"/>
-      <c r="H1037" s="22"/>
-      <c r="I1037" s="22"/>
-      <c r="J1037" s="22"/>
-      <c r="K1037" s="22"/>
-      <c r="L1037" s="22"/>
-      <c r="M1037" s="22"/>
-      <c r="N1037" s="22"/>
-      <c r="O1037" s="22"/>
-      <c r="P1037" s="22"/>
-      <c r="Q1037" s="22"/>
-      <c r="R1037" s="22"/>
-      <c r="S1037" s="22"/>
-      <c r="T1037" s="22"/>
-      <c r="U1037" s="22"/>
-      <c r="V1037" s="22"/>
-      <c r="W1037" s="22"/>
-      <c r="X1037" s="22"/>
-      <c r="Y1037" s="22"/>
-      <c r="Z1037" s="22"/>
-      <c r="AA1037" s="22"/>
-      <c r="AB1037" s="22"/>
-      <c r="AC1037" s="22"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J51:J65 J66">
+    <dataValidation type="list" allowBlank="1" sqref="J51:J65">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -40496,7 +40445,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-28 13-02</v>
+        <v>2020-12-28 13-12</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -454,12 +454,6 @@
     <t>&lt;span style="color:red"&gt;Please complete the follow-up task within 3 days.&lt;/span&gt;</t>
   </si>
   <si>
-    <t>Ask ${patient_short_name} to monitor these danger signs throughout home isolation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${patient_short_name} currently have any of these danger signs/comorbidities? </t>
-  </si>
-  <si>
     <t>bp</t>
   </si>
   <si>
@@ -512,6 +506,12 @@
   </si>
   <si>
     <t>miscarriage</t>
+  </si>
+  <si>
+    <t>Ask ${patient_name} to monitor these danger signs throughout home isolation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does ${patient_name} currently have any of these danger signs/comorbidities? </t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3542,7 @@
         <v>132</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
@@ -3590,7 +3590,7 @@
         <v>133</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
@@ -3635,10 +3635,10 @@
         <v>134</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" s="46" t="s">
         <v>31</v>
@@ -3685,10 +3685,10 @@
         <v>134</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="46" t="s">
         <v>31</v>
@@ -3735,10 +3735,10 @@
         <v>134</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="46" t="s">
         <v>31</v>
@@ -3785,10 +3785,10 @@
         <v>134</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" s="46" t="s">
         <v>31</v>
@@ -3835,10 +3835,10 @@
         <v>134</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>31</v>
@@ -3885,10 +3885,10 @@
         <v>134</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D59" s="46" t="s">
         <v>31</v>
@@ -3935,10 +3935,10 @@
         <v>134</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>31</v>
@@ -3985,10 +3985,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" s="46" t="s">
         <v>31</v>
@@ -4035,10 +4035,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62" s="46" t="s">
         <v>31</v>
@@ -40445,7 +40445,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-28 13-12</v>
+        <v>2020-12-28 13-13</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -508,10 +508,10 @@
     <t>miscarriage</t>
   </si>
   <si>
-    <t>Ask ${patient_name} to monitor these danger signs throughout home isolation.</t>
+    <t>Ask ${contact_surname} to monitor these danger signs throughout home isolation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Does ${patient_name} currently have any of these danger signs/comorbidities? </t>
+    <t xml:space="preserve">Does ${contact_surname} currently have any of these danger signs/comorbidities? </t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:AN1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
@@ -40445,7 +40445,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-28 13-13</v>
+        <v>2020-12-28 13-15</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Trace Request form</t>
-  </si>
-  <si>
-    <t>covid_trace_request</t>
   </si>
   <si>
     <t>begin group</t>
@@ -494,6 +488,12 @@
   </si>
   <si>
     <t>${gender} = 'female'</t>
+  </si>
+  <si>
+    <t>COVID Comorbidities</t>
+  </si>
+  <si>
+    <t>covid_comorbidities</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1132,22 +1132,22 @@
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -1161,7 +1161,7 @@
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
       <c r="T2" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
@@ -1186,23 +1186,23 @@
     </row>
     <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="26"/>
@@ -1288,13 +1288,13 @@
     </row>
     <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -1336,19 +1336,19 @@
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -1543,19 +1543,19 @@
     </row>
     <row r="11" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="12" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="13" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="14" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="15" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="16" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="17" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="18" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="19" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="20" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="21" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="22" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -2110,19 +2110,19 @@
     </row>
     <row r="23" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="38"/>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="24" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="25" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="38"/>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="26" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -2306,19 +2306,19 @@
     </row>
     <row r="27" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="38"/>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="28" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="29" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="30" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="41"/>
@@ -2599,7 +2599,7 @@
       <c r="L33" s="42"/>
       <c r="M33" s="41"/>
       <c r="N33" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O33" s="41"/>
       <c r="P33" s="12"/>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="44"/>
@@ -2647,7 +2647,7 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="35" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="44"/>
@@ -2695,7 +2695,7 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="44"/>
@@ -2743,7 +2743,7 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="44"/>
@@ -2791,7 +2791,7 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="44"/>
@@ -2839,7 +2839,7 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="44"/>
@@ -2887,7 +2887,7 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="44"/>
@@ -2934,7 +2934,7 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -2942,7 +2942,7 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="44"/>
@@ -2984,7 +2984,7 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
@@ -2992,7 +2992,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="44"/>
@@ -3034,7 +3034,7 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="44"/>
@@ -3081,7 +3081,7 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
@@ -3111,19 +3111,19 @@
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H44" s="44"/>
       <c r="I44" s="12"/>
@@ -3138,7 +3138,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
@@ -3163,20 +3163,20 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="12"/>
       <c r="H45" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3212,20 +3212,20 @@
     </row>
     <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>111</v>
-      </c>
       <c r="C46" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="12"/>
       <c r="H46" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -3261,20 +3261,20 @@
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="12"/>
       <c r="H47" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3310,20 +3310,20 @@
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="12"/>
       <c r="H48" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -3359,20 +3359,20 @@
     </row>
     <row r="49" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="12"/>
       <c r="H49" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -3408,20 +3408,20 @@
     </row>
     <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="12"/>
       <c r="H50" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="43"/>
       <c r="D51" s="44"/>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="52" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -3550,13 +3550,13 @@
     </row>
     <row r="53" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="54" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>31</v>
@@ -3648,13 +3648,13 @@
     </row>
     <row r="55" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>31</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="56" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>31</v>
@@ -3748,13 +3748,13 @@
     </row>
     <row r="57" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>31</v>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="58" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>31</v>
@@ -3848,13 +3848,13 @@
     </row>
     <row r="59" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>31</v>
@@ -3898,13 +3898,13 @@
     </row>
     <row r="60" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>31</v>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="61" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>31</v>
@@ -3998,13 +3998,13 @@
     </row>
     <row r="62" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>31</v>
@@ -4013,7 +4013,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34205,46 +34205,46 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -40222,7 +40222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40277,20 +40279,20 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 10-50</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="7"/>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1016,11 +1016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN1033"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40222,7 +40222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -40286,7 +40286,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 12-29</v>
+        <v>2020-12-31 15-15</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>list_name</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>What is the patient name?</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1020,10 @@
   <dimension ref="A1:AN1033"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1549,13 +1552,13 @@
         <v>68</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -1581,7 +1584,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:40" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -40286,7 +40289,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 21-42</v>
+        <v>2021-01-01 23-30</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_comorbidities.xlsx
+++ b/forms/app/covid_comorbidities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
   <si>
     <t>list_name</t>
   </si>
@@ -498,12 +498,18 @@
   <si>
     <t>What is the patient name?</t>
   </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -556,8 +562,34 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +674,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -685,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -801,6 +839,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,10 +1069,10 @@
   <dimension ref="A1:AN1033"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2545,7 @@
       <c r="AN30" s="39"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="21"/>
@@ -2540,7 +2589,7 @@
       <c r="AN31" s="23"/>
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="21"/>
@@ -3113,13 +3162,13 @@
       <c r="AN43" s="12"/>
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D44" s="44"/>
@@ -3459,7 +3508,7 @@
       <c r="AN50" s="12"/>
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="43"/>
@@ -3502,13 +3551,13 @@
       <c r="AN51" s="12"/>
     </row>
     <row r="52" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="50" t="s">
         <v>128</v>
       </c>
       <c r="D52" s="14"/>
@@ -4052,7 +4101,7 @@
       <c r="AN62" s="12"/>
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="48" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4087,14 +4136,22 @@
       <c r="AB64" s="27"/>
       <c r="AC64" s="27"/>
     </row>
-    <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="G65" s="46" t="s">
+        <v>157</v>
+      </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
@@ -4119,9 +4176,6 @@
       <c r="AC65" s="27"/>
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
@@ -4150,9 +4204,6 @@
       <c r="AC66" s="27"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
@@ -4180,10 +4231,10 @@
       <c r="AB67" s="27"/>
       <c r="AC67" s="27"/>
     </row>
-    <row r="68" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+    <row r="68" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -40289,7 +40340,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 23-30</v>
+        <v>2021-01-01 23-55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
